--- a/data/output/FV2304_FV2210/PARTIN/37002.xlsx
+++ b/data/output/FV2304_FV2210/PARTIN/37002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="266">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="266">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -946,6 +946,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U218" totalsRowShown="0">
+  <autoFilter ref="A1:U218"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,7 +1265,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11284,5 +11317,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/PARTIN/37002.xlsx
+++ b/data/output/FV2304_FV2210/PARTIN/37002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5647" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5299" uniqueCount="480">
   <si>
     <t>#</t>
   </si>
@@ -3113,50 +3113,48 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M25" s="5" t="s">
+      <c r="L25" s="4"/>
+      <c r="M25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5" t="s">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3188,9 +3186,7 @@
         <v>220</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>27</v>
       </c>
@@ -3242,9 +3238,7 @@
         <v>225</v>
       </c>
       <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="5" t="s">
         <v>27</v>
       </c>
@@ -3296,9 +3290,7 @@
         <v>220</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>27</v>
       </c>
@@ -3519,44 +3511,42 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M33" s="5" t="s">
+      <c r="K33" s="2"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5" t="s">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V33" s="5"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3580,9 +3570,7 @@
         <v>219</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="5" t="s">
         <v>29</v>
       </c>
@@ -3630,9 +3618,7 @@
         <v>220</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>29</v>
       </c>
@@ -3686,9 +3672,7 @@
       <c r="K36" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>29</v>
       </c>
@@ -3742,9 +3726,7 @@
         <v>220</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>29</v>
       </c>
@@ -3798,9 +3780,7 @@
         <v>220</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>29</v>
       </c>
@@ -3827,44 +3807,42 @@
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M39" s="5" t="s">
+      <c r="K39" s="2"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5" t="s">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V39" s="5"/>
+      <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="5" t="s">
@@ -3888,9 +3866,7 @@
         <v>219</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="5" t="s">
         <v>30</v>
       </c>
@@ -3938,9 +3914,7 @@
         <v>220</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>30</v>
       </c>
@@ -3992,9 +3966,7 @@
         <v>220</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>30</v>
       </c>
@@ -4019,48 +3991,46 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M43" s="5" t="s">
+      <c r="K43" s="2"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V43" s="5"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
@@ -4090,9 +4060,7 @@
       <c r="K44" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
         <v>31</v>
       </c>
@@ -4146,9 +4114,7 @@
         <v>229</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>31</v>
       </c>
@@ -4202,9 +4168,7 @@
         <v>229</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="5" t="s">
         <v>31</v>
       </c>
@@ -4258,9 +4222,7 @@
         <v>229</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="5" t="s">
         <v>31</v>
       </c>
@@ -4314,9 +4276,7 @@
         <v>229</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>31</v>
       </c>
@@ -4370,9 +4330,7 @@
         <v>229</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>31</v>
       </c>
@@ -4399,44 +4357,42 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M50" s="5" t="s">
+      <c r="K50" s="2"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5" t="s">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V50" s="5"/>
+      <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -4460,9 +4416,7 @@
         <v>219</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="5" t="s">
         <v>32</v>
       </c>
@@ -4510,9 +4464,7 @@
         <v>220</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -4566,9 +4518,7 @@
       <c r="K53" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>32</v>
       </c>
@@ -4622,9 +4572,7 @@
         <v>220</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>32</v>
       </c>
@@ -4678,9 +4626,7 @@
         <v>220</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>32</v>
       </c>
@@ -4707,44 +4653,42 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M56" s="5" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5" t="s">
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4772,9 +4716,7 @@
         <v>220</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>33</v>
       </c>
@@ -4799,46 +4741,44 @@
       <c r="V57" s="5"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="s">
+      <c r="C58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M58" s="5" t="s">
+      <c r="L58" s="4"/>
+      <c r="M58" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N58" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5" t="s">
+      <c r="N58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="V58" s="5" t="s">
+      <c r="V58" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4864,9 +4804,7 @@
         <v>219</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>34</v>
       </c>
@@ -4914,9 +4852,7 @@
         <v>220</v>
       </c>
       <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>34</v>
       </c>
@@ -4968,9 +4904,7 @@
         <v>220</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>34</v>
       </c>
@@ -5022,9 +4956,7 @@
         <v>220</v>
       </c>
       <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="5" t="s">
         <v>34</v>
       </c>
@@ -5076,9 +5008,7 @@
         <v>220</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>34</v>
       </c>
@@ -5128,9 +5058,7 @@
         <v>220</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>34</v>
       </c>
@@ -5182,9 +5110,7 @@
       <c r="K65" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>34</v>
       </c>
@@ -5236,9 +5162,7 @@
         <v>220</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>34</v>
       </c>
@@ -5263,48 +5187,46 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M67" s="5" t="s">
+      <c r="K67" s="2"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N67" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O67" s="5" t="s">
+      <c r="N67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V67" s="5"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -5901,48 +5823,46 @@
       <c r="V80" s="5"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="C81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M81" s="5" t="s">
+      <c r="K81" s="2"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N81" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O81" s="5" t="s">
+      <c r="N81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5" t="s">
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V81" s="5"/>
+      <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -5972,9 +5892,7 @@
         <v>220</v>
       </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>38</v>
       </c>
@@ -6026,9 +5944,7 @@
         <v>220</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>38</v>
       </c>
@@ -6053,50 +5969,48 @@
       <c r="V83" s="5"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="C84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="L84" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="L84" s="4"/>
+      <c r="M84" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N84" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O84" s="5" t="s">
+      <c r="N84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5" t="s">
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="V84" s="5" t="s">
+      <c r="V84" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6128,9 +6042,7 @@
         <v>220</v>
       </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>39</v>
       </c>
@@ -6182,9 +6094,7 @@
         <v>220</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>39</v>
       </c>
@@ -6234,9 +6144,7 @@
         <v>220</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>39</v>
       </c>
@@ -6261,46 +6169,44 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K88" s="5" t="s">
+      <c r="K88" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="L88" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="V88" s="5" t="s">
+      <c r="V88" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6326,9 +6232,7 @@
         <v>219</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>40</v>
       </c>
@@ -6376,9 +6280,7 @@
         <v>237</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>40</v>
       </c>
@@ -6432,9 +6334,7 @@
         <v>238</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>40</v>
       </c>
@@ -6486,9 +6386,7 @@
         <v>220</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>40</v>
       </c>
@@ -6513,48 +6411,46 @@
       <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M93" s="5" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O93" s="5" t="s">
+      <c r="O93" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V93" s="5"/>
+      <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6584,9 +6480,7 @@
         <v>220</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>41</v>
       </c>
@@ -6640,9 +6534,7 @@
       <c r="K95" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="L95" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>41</v>
       </c>
@@ -6669,44 +6561,42 @@
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M96" s="5" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N96" s="5" t="s">
+      <c r="N96" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5" t="s">
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V96" s="5"/>
+      <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6730,9 +6620,7 @@
         <v>219</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>42</v>
       </c>
@@ -6780,9 +6668,7 @@
         <v>220</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>42</v>
       </c>
@@ -6809,48 +6695,46 @@
       <c r="V98" s="5"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5" t="s">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M99" s="5" t="s">
+      <c r="K99" s="2"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N99" s="5" t="s">
+      <c r="N99" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O99" s="5" t="s">
+      <c r="O99" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5" t="s">
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V99" s="5"/>
+      <c r="V99" s="2"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -6880,9 +6764,7 @@
         <v>232</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>43</v>
       </c>
@@ -6936,9 +6818,7 @@
         <v>232</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>43</v>
       </c>
@@ -6992,9 +6872,7 @@
         <v>232</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>43</v>
       </c>
@@ -7048,9 +6926,7 @@
         <v>232</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>43</v>
       </c>
@@ -7104,9 +6980,7 @@
         <v>232</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>43</v>
       </c>
@@ -7160,9 +7034,7 @@
         <v>229</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>43</v>
       </c>
@@ -7216,9 +7088,7 @@
       <c r="K106" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="L106" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>43</v>
       </c>
@@ -7272,9 +7142,7 @@
         <v>220</v>
       </c>
       <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
         <v>43</v>
       </c>
@@ -7301,46 +7169,44 @@
       <c r="V107" s="5"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5" t="s">
+      <c r="C108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K108" s="5" t="s">
+      <c r="K108" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L108" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M108" s="5" t="s">
+      <c r="L108" s="4"/>
+      <c r="M108" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N108" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5" t="s">
+      <c r="N108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="V108" s="5" t="s">
+      <c r="V108" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7366,9 +7232,7 @@
         <v>219</v>
       </c>
       <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="5" t="s">
         <v>44</v>
       </c>
@@ -7416,9 +7280,7 @@
         <v>220</v>
       </c>
       <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="5" t="s">
         <v>44</v>
       </c>
@@ -7472,9 +7334,7 @@
       <c r="K111" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L111" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>44</v>
       </c>
@@ -7528,9 +7388,7 @@
         <v>220</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>44</v>
       </c>
@@ -7582,9 +7440,7 @@
         <v>220</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>44</v>
       </c>
@@ -7634,9 +7490,7 @@
         <v>220</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>44</v>
       </c>
@@ -7742,9 +7596,7 @@
         <v>220</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>44</v>
       </c>
@@ -7769,44 +7621,42 @@
       <c r="V116" s="5"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5" t="s">
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M117" s="5" t="s">
+      <c r="K117" s="2"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N117" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5" t="s">
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V117" s="5"/>
+      <c r="V117" s="2"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="5" t="s">
@@ -7830,9 +7680,7 @@
         <v>219</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>30</v>
       </c>
@@ -7880,9 +7728,7 @@
         <v>220</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>30</v>
       </c>
@@ -7936,9 +7782,7 @@
       <c r="K120" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L120" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>30</v>
       </c>
@@ -7965,48 +7809,46 @@
       </c>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5" t="s">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M121" s="5" t="s">
+      <c r="K121" s="2"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N121" s="5" t="s">
+      <c r="N121" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O121" s="5" t="s">
+      <c r="O121" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5" t="s">
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V121" s="5"/>
+      <c r="V121" s="2"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
@@ -8036,9 +7878,7 @@
       <c r="K122" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L122" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>31</v>
       </c>
@@ -8092,9 +7932,7 @@
         <v>232</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>31</v>
       </c>
@@ -8148,9 +7986,7 @@
         <v>232</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>31</v>
       </c>
@@ -8204,9 +8040,7 @@
         <v>229</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>31</v>
       </c>
@@ -8233,46 +8067,44 @@
       <c r="V125" s="5"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5" t="s">
+      <c r="C126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K126" s="5" t="s">
+      <c r="K126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L126" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M126" s="5" t="s">
+      <c r="L126" s="4"/>
+      <c r="M126" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N126" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="5" t="s">
+      <c r="N126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="V126" s="5" t="s">
+      <c r="V126" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -8298,9 +8130,7 @@
         <v>219</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>45</v>
       </c>
@@ -8348,9 +8178,7 @@
         <v>220</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>45</v>
       </c>
@@ -8404,9 +8232,7 @@
       <c r="K129" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L129" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>45</v>
       </c>
@@ -8460,9 +8286,7 @@
         <v>220</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>45</v>
       </c>
@@ -8514,9 +8338,7 @@
         <v>220</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>45</v>
       </c>
@@ -8566,9 +8388,7 @@
         <v>220</v>
       </c>
       <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>45</v>
       </c>
@@ -8674,9 +8494,7 @@
         <v>220</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>45</v>
       </c>
@@ -8701,44 +8519,42 @@
       <c r="V134" s="5"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5" t="s">
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M135" s="5" t="s">
+      <c r="K135" s="2"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5" t="s">
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V135" s="5"/>
+      <c r="V135" s="2"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="5" t="s">
@@ -8762,9 +8578,7 @@
         <v>219</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>30</v>
       </c>
@@ -8812,9 +8626,7 @@
         <v>220</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>30</v>
       </c>
@@ -8868,9 +8680,7 @@
       <c r="K138" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>30</v>
       </c>
@@ -8897,48 +8707,46 @@
       </c>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5" t="s">
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M139" s="5" t="s">
+      <c r="K139" s="2"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N139" s="5" t="s">
+      <c r="N139" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O139" s="5" t="s">
+      <c r="O139" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="5"/>
-      <c r="S139" s="5"/>
-      <c r="T139" s="5"/>
-      <c r="U139" s="5" t="s">
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V139" s="5"/>
+      <c r="V139" s="2"/>
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="5" t="s">
@@ -8968,9 +8776,7 @@
       <c r="K140" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L140" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>31</v>
       </c>
@@ -9024,9 +8830,7 @@
         <v>232</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>31</v>
       </c>
@@ -9080,9 +8884,7 @@
         <v>232</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>31</v>
       </c>
@@ -9136,9 +8938,7 @@
         <v>229</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>31</v>
       </c>
@@ -9165,46 +8965,44 @@
       <c r="V143" s="5"/>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5" t="s">
+      <c r="C144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K144" s="5" t="s">
+      <c r="K144" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L144" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M144" s="5" t="s">
+      <c r="L144" s="4"/>
+      <c r="M144" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N144" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5" t="s">
+      <c r="N144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="V144" s="5" t="s">
+      <c r="V144" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -9230,9 +9028,7 @@
         <v>219</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>46</v>
       </c>
@@ -9280,9 +9076,7 @@
         <v>220</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>46</v>
       </c>
@@ -9336,9 +9130,7 @@
       <c r="K147" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L147" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>46</v>
       </c>
@@ -9392,9 +9184,7 @@
         <v>220</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>46</v>
       </c>
@@ -9446,9 +9236,7 @@
         <v>220</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>46</v>
       </c>
@@ -9498,9 +9286,7 @@
         <v>220</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>46</v>
       </c>
@@ -9552,9 +9338,7 @@
       <c r="K151" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L151" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>46</v>
       </c>
@@ -9606,9 +9390,7 @@
         <v>220</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>46</v>
       </c>
@@ -9633,44 +9415,42 @@
       <c r="V152" s="5"/>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5" t="s">
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M153" s="5" t="s">
+      <c r="K153" s="2"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N153" s="5" t="s">
+      <c r="N153" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5" t="s">
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V153" s="5"/>
+      <c r="V153" s="2"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="5" t="s">
@@ -9694,9 +9474,7 @@
         <v>219</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>30</v>
       </c>
@@ -9744,9 +9522,7 @@
         <v>220</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>30</v>
       </c>
@@ -9800,9 +9576,7 @@
       <c r="K156" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L156" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>30</v>
       </c>
@@ -9829,48 +9603,46 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5" t="s">
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M157" s="5" t="s">
+      <c r="K157" s="2"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N157" s="5" t="s">
+      <c r="N157" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O157" s="5" t="s">
+      <c r="O157" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
-      <c r="T157" s="5"/>
-      <c r="U157" s="5" t="s">
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="2"/>
+      <c r="T157" s="2"/>
+      <c r="U157" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V157" s="5"/>
+      <c r="V157" s="2"/>
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="5" t="s">
@@ -9900,9 +9672,7 @@
       <c r="K158" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L158" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>31</v>
       </c>
@@ -9956,9 +9726,7 @@
         <v>232</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>31</v>
       </c>
@@ -10012,9 +9780,7 @@
         <v>232</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>31</v>
       </c>
@@ -10068,9 +9834,7 @@
         <v>229</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>31</v>
       </c>
@@ -10097,46 +9861,44 @@
       <c r="V161" s="5"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5" t="s">
+      <c r="C162" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K162" s="5" t="s">
+      <c r="K162" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L162" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M162" s="5" t="s">
+      <c r="L162" s="4"/>
+      <c r="M162" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N162" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5" t="s">
+      <c r="N162" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="V162" s="5" t="s">
+      <c r="V162" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -10162,9 +9924,7 @@
         <v>219</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>47</v>
       </c>
@@ -10212,9 +9972,7 @@
         <v>220</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>47</v>
       </c>
@@ -10268,9 +10026,7 @@
       <c r="K165" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L165" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>47</v>
       </c>
@@ -10324,9 +10080,7 @@
         <v>220</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>47</v>
       </c>
@@ -10378,9 +10132,7 @@
         <v>220</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>47</v>
       </c>
@@ -10430,9 +10182,7 @@
         <v>220</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>47</v>
       </c>
@@ -10484,9 +10234,7 @@
       <c r="K169" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L169" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>47</v>
       </c>
@@ -10538,9 +10286,7 @@
         <v>220</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>47</v>
       </c>
@@ -10565,44 +10311,42 @@
       <c r="V170" s="5"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5" t="s">
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M171" s="5" t="s">
+      <c r="K171" s="2"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N171" s="5" t="s">
+      <c r="N171" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O171" s="5"/>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5" t="s">
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V171" s="5"/>
+      <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
@@ -10626,9 +10370,7 @@
         <v>219</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>30</v>
       </c>
@@ -10676,9 +10418,7 @@
         <v>220</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>30</v>
       </c>
@@ -10732,9 +10472,7 @@
       <c r="K174" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L174" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>30</v>
       </c>
@@ -10761,48 +10499,46 @@
       </c>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M175" s="5" t="s">
+      <c r="K175" s="2"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N175" s="5" t="s">
+      <c r="N175" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O175" s="5" t="s">
+      <c r="O175" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V175" s="5"/>
+      <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="5" t="s">
@@ -10832,9 +10568,7 @@
       <c r="K176" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L176" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>31</v>
       </c>
@@ -10888,9 +10622,7 @@
         <v>232</v>
       </c>
       <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>31</v>
       </c>
@@ -10944,9 +10676,7 @@
         <v>232</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>31</v>
       </c>
@@ -11000,9 +10730,7 @@
         <v>229</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>31</v>
       </c>
@@ -11029,46 +10757,44 @@
       <c r="V179" s="5"/>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5" t="s">
+      <c r="C180" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K180" s="5" t="s">
+      <c r="K180" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L180" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M180" s="5" t="s">
+      <c r="L180" s="4"/>
+      <c r="M180" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N180" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O180" s="5"/>
-      <c r="P180" s="5"/>
-      <c r="Q180" s="5"/>
-      <c r="R180" s="5"/>
-      <c r="S180" s="5"/>
-      <c r="T180" s="5"/>
-      <c r="U180" s="5" t="s">
+      <c r="N180" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
+      <c r="U180" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="V180" s="5" t="s">
+      <c r="V180" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -11094,9 +10820,7 @@
         <v>219</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>48</v>
       </c>
@@ -11144,9 +10868,7 @@
         <v>220</v>
       </c>
       <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>48</v>
       </c>
@@ -11200,9 +10922,7 @@
       <c r="K183" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L183" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>48</v>
       </c>
@@ -11256,9 +10976,7 @@
         <v>220</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>48</v>
       </c>
@@ -11310,9 +11028,7 @@
         <v>220</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>48</v>
       </c>
@@ -11362,9 +11078,7 @@
         <v>220</v>
       </c>
       <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>48</v>
       </c>
@@ -11416,9 +11130,7 @@
       <c r="K187" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L187" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>48</v>
       </c>
@@ -11470,9 +11182,7 @@
         <v>220</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>48</v>
       </c>
@@ -11497,44 +11207,42 @@
       <c r="V188" s="5"/>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5" t="s">
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M189" s="5" t="s">
+      <c r="K189" s="2"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="N189" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O189" s="5"/>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5" t="s">
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V189" s="5"/>
+      <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="5" t="s">
@@ -11558,9 +11266,7 @@
         <v>219</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>30</v>
       </c>
@@ -11608,9 +11314,7 @@
         <v>220</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>30</v>
       </c>
@@ -11664,9 +11368,7 @@
       <c r="K192" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L192" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L192" s="4"/>
       <c r="M192" s="5" t="s">
         <v>30</v>
       </c>
@@ -11693,48 +11395,46 @@
       </c>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5" t="s">
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M193" s="5" t="s">
+      <c r="K193" s="2"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N193" s="5" t="s">
+      <c r="N193" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O193" s="5" t="s">
+      <c r="O193" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="5"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-      <c r="U193" s="5" t="s">
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V193" s="5"/>
+      <c r="V193" s="2"/>
     </row>
     <row r="194" spans="1:22">
       <c r="A194" s="5" t="s">
@@ -11764,9 +11464,7 @@
       <c r="K194" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L194" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>31</v>
       </c>
@@ -11820,9 +11518,7 @@
         <v>232</v>
       </c>
       <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L195" s="4"/>
       <c r="M195" s="5" t="s">
         <v>31</v>
       </c>
@@ -11876,9 +11572,7 @@
         <v>232</v>
       </c>
       <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>31</v>
       </c>
@@ -11932,9 +11626,7 @@
         <v>229</v>
       </c>
       <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L197" s="4"/>
       <c r="M197" s="5" t="s">
         <v>31</v>
       </c>
@@ -11961,46 +11653,44 @@
       <c r="V197" s="5"/>
     </row>
     <row r="198" spans="1:22">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5" t="s">
+      <c r="C198" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K198" s="5" t="s">
+      <c r="K198" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L198" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M198" s="5" t="s">
+      <c r="L198" s="4"/>
+      <c r="M198" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N198" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O198" s="5"/>
-      <c r="P198" s="5"/>
-      <c r="Q198" s="5"/>
-      <c r="R198" s="5"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
-      <c r="U198" s="5" t="s">
+      <c r="N198" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="V198" s="5" t="s">
+      <c r="V198" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -12026,9 +11716,7 @@
         <v>219</v>
       </c>
       <c r="K199" s="5"/>
-      <c r="L199" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L199" s="4"/>
       <c r="M199" s="5" t="s">
         <v>49</v>
       </c>
@@ -12076,9 +11764,7 @@
         <v>220</v>
       </c>
       <c r="K200" s="5"/>
-      <c r="L200" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L200" s="4"/>
       <c r="M200" s="5" t="s">
         <v>49</v>
       </c>
@@ -12132,9 +11818,7 @@
       <c r="K201" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L201" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L201" s="4"/>
       <c r="M201" s="5" t="s">
         <v>49</v>
       </c>
@@ -12188,9 +11872,7 @@
         <v>220</v>
       </c>
       <c r="K202" s="5"/>
-      <c r="L202" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L202" s="4"/>
       <c r="M202" s="5" t="s">
         <v>49</v>
       </c>
@@ -12242,9 +11924,7 @@
         <v>220</v>
       </c>
       <c r="K203" s="5"/>
-      <c r="L203" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L203" s="4"/>
       <c r="M203" s="5" t="s">
         <v>49</v>
       </c>
@@ -12294,9 +11974,7 @@
         <v>220</v>
       </c>
       <c r="K204" s="5"/>
-      <c r="L204" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L204" s="4"/>
       <c r="M204" s="5" t="s">
         <v>49</v>
       </c>
@@ -12402,9 +12080,7 @@
         <v>220</v>
       </c>
       <c r="K206" s="5"/>
-      <c r="L206" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L206" s="4"/>
       <c r="M206" s="5" t="s">
         <v>49</v>
       </c>
@@ -12429,44 +12105,42 @@
       <c r="V206" s="5"/>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5" t="s">
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K207" s="5"/>
-      <c r="L207" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M207" s="5" t="s">
+      <c r="K207" s="2"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N207" s="5" t="s">
+      <c r="N207" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O207" s="5"/>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="5"/>
-      <c r="R207" s="5"/>
-      <c r="S207" s="5"/>
-      <c r="T207" s="5"/>
-      <c r="U207" s="5" t="s">
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V207" s="5"/>
+      <c r="V207" s="2"/>
     </row>
     <row r="208" spans="1:22">
       <c r="A208" s="5" t="s">
@@ -12490,9 +12164,7 @@
         <v>219</v>
       </c>
       <c r="K208" s="5"/>
-      <c r="L208" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L208" s="4"/>
       <c r="M208" s="5" t="s">
         <v>30</v>
       </c>
@@ -12540,9 +12212,7 @@
         <v>220</v>
       </c>
       <c r="K209" s="5"/>
-      <c r="L209" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L209" s="4"/>
       <c r="M209" s="5" t="s">
         <v>30</v>
       </c>
@@ -12596,9 +12266,7 @@
       <c r="K210" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L210" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L210" s="4"/>
       <c r="M210" s="5" t="s">
         <v>30</v>
       </c>
@@ -12625,48 +12293,46 @@
       </c>
     </row>
     <row r="211" spans="1:22">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C211" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="D211" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="5" t="s">
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K211" s="5"/>
-      <c r="L211" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M211" s="5" t="s">
+      <c r="K211" s="2"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N211" s="5" t="s">
+      <c r="N211" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O211" s="5" t="s">
+      <c r="O211" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P211" s="5"/>
-      <c r="Q211" s="5"/>
-      <c r="R211" s="5"/>
-      <c r="S211" s="5"/>
-      <c r="T211" s="5"/>
-      <c r="U211" s="5" t="s">
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V211" s="5"/>
+      <c r="V211" s="2"/>
     </row>
     <row r="212" spans="1:22">
       <c r="A212" s="5" t="s">
@@ -12696,9 +12362,7 @@
       <c r="K212" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L212" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L212" s="4"/>
       <c r="M212" s="5" t="s">
         <v>31</v>
       </c>
@@ -12752,9 +12416,7 @@
         <v>232</v>
       </c>
       <c r="K213" s="5"/>
-      <c r="L213" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L213" s="4"/>
       <c r="M213" s="5" t="s">
         <v>31</v>
       </c>
@@ -12808,9 +12470,7 @@
         <v>232</v>
       </c>
       <c r="K214" s="5"/>
-      <c r="L214" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L214" s="4"/>
       <c r="M214" s="5" t="s">
         <v>31</v>
       </c>
@@ -12864,9 +12524,7 @@
         <v>229</v>
       </c>
       <c r="K215" s="5"/>
-      <c r="L215" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L215" s="4"/>
       <c r="M215" s="5" t="s">
         <v>31</v>
       </c>
@@ -12893,44 +12551,42 @@
       <c r="V215" s="5"/>
     </row>
     <row r="216" spans="1:22">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5" t="s">
+      <c r="C216" s="2"/>
+      <c r="D216" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-      <c r="J216" s="5" t="s">
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K216" s="5"/>
-      <c r="L216" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M216" s="5" t="s">
+      <c r="K216" s="2"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N216" s="5"/>
-      <c r="O216" s="5" t="s">
+      <c r="N216" s="2"/>
+      <c r="O216" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P216" s="5"/>
-      <c r="Q216" s="5"/>
-      <c r="R216" s="5"/>
-      <c r="S216" s="5"/>
-      <c r="T216" s="5"/>
-      <c r="U216" s="5" t="s">
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+      <c r="U216" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V216" s="5"/>
+      <c r="V216" s="2"/>
     </row>
     <row r="217" spans="1:22">
       <c r="A217" s="5" t="s">
@@ -12956,9 +12612,7 @@
         <v>220</v>
       </c>
       <c r="K217" s="5"/>
-      <c r="L217" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L217" s="4"/>
       <c r="M217" s="5" t="s">
         <v>50</v>
       </c>
@@ -13004,9 +12658,7 @@
         <v>220</v>
       </c>
       <c r="K218" s="5"/>
-      <c r="L218" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="L218" s="4"/>
       <c r="M218" s="5" t="s">
         <v>50</v>
       </c>

--- a/data/output/FV2304_FV2210/PARTIN/37002.xlsx
+++ b/data/output/FV2304_FV2210/PARTIN/37002.xlsx
@@ -1572,7 +1572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1606,6 +1606,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2043,7 +2046,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2379,7 +2382,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2567,7 +2570,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2755,7 +2758,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2923,46 +2926,46 @@
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O21" s="6"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5" t="s">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V21" s="5"/>
+      <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="5" t="s">
@@ -3137,7 +3140,7 @@
         <v>247</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3317,48 +3320,48 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="2" t="s">
         <v>247</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O29" s="6"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5" t="s">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="V29" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3531,7 +3534,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3827,7 +3830,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4013,7 +4016,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4377,7 +4380,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4673,7 +4676,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -4763,7 +4766,7 @@
         <v>250</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5209,7 +5212,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5590,7 +5593,7 @@
       <c r="A75" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="10" t="s">
@@ -5708,7 +5711,7 @@
       <c r="A78" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -5845,7 +5848,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5993,7 +5996,7 @@
         <v>252</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6191,7 +6194,7 @@
         <v>253</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6433,7 +6436,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6581,7 +6584,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6717,7 +6720,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7191,7 +7194,7 @@
         <v>250</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7641,7 +7644,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7831,7 +7834,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8089,7 +8092,7 @@
         <v>250</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8539,7 +8542,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8729,7 +8732,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -8987,7 +8990,7 @@
         <v>250</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9435,7 +9438,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9625,7 +9628,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -9883,7 +9886,7 @@
         <v>250</v>
       </c>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10331,7 +10334,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10521,7 +10524,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10779,7 +10782,7 @@
         <v>250</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -11227,7 +11230,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -11417,7 +11420,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -11675,7 +11678,7 @@
         <v>250</v>
       </c>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -12125,7 +12128,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -12315,7 +12318,7 @@
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -12571,7 +12574,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N216" s="2"/>
